--- a/excel/2023.xlsx
+++ b/excel/2023.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamishra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C1B9F5-4EC1-4282-91CC-2416FB7CB849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9918C3-F62C-4C4D-A07E-6D3F60232D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Companies List" sheetId="18" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Companies List'!$A$1:$E$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -355,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,6 +414,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +785,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>8</v>
@@ -799,7 +802,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>14</v>
@@ -816,7 +819,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>4</v>
@@ -833,7 +836,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>6</v>
@@ -850,7 +853,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>5</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>3</v>
@@ -884,7 +887,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>9</v>
@@ -901,7 +904,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>12</v>
@@ -918,7 +921,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>2</v>
@@ -935,7 +938,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>17</v>
@@ -952,7 +955,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>41</v>
@@ -969,7 +972,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>7</v>
@@ -985,7 +988,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
       <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
@@ -1001,7 +1006,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>18</v>
@@ -1018,7 +1023,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>10</v>
@@ -1035,7 +1040,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>16</v>
@@ -1052,7 +1057,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>15</v>
@@ -1069,7 +1074,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>11</v>
@@ -1086,7 +1091,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>13</v>
@@ -1103,7 +1108,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>19</v>
@@ -1120,7 +1125,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>20</v>
@@ -1137,7 +1142,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>21</v>
@@ -1154,7 +1159,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>22</v>
@@ -1171,7 +1176,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>44</v>
@@ -1187,8 +1192,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
-        <v>28</v>
+      <c r="A27" s="4">
+        <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>45</v>
@@ -1204,7 +1209,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
       <c r="B28" s="13" t="s">
         <v>45</v>
       </c>
@@ -1219,7 +1226,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
       <c r="B29" s="13" t="s">
         <v>45</v>
       </c>
@@ -1251,7 +1260,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -1268,7 +1277,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="20">
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
@@ -1285,7 +1294,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="20">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -1303,7 +1312,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>49</v>
@@ -1320,7 +1329,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>60</v>
@@ -1337,7 +1346,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>55</v>
@@ -1354,7 +1363,7 @@
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>63</v>
@@ -1371,7 +1380,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>64</v>
@@ -1388,7 +1397,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>66</v>
@@ -1404,8 +1413,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20">
-        <v>47</v>
+      <c r="A40" s="26">
+        <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>67</v>
@@ -1421,8 +1430,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20">
-        <v>48</v>
+      <c r="A41" s="26">
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>61</v>
@@ -1438,8 +1447,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20">
-        <v>49</v>
+      <c r="A42" s="26">
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>68</v>
@@ -1456,10 +1465,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="2">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A27:A29"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="Media.net!A1" display="Media.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" location="'Publicis Sapient'!A1" display="Publicis Sapient" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/excel/2023.xlsx
+++ b/excel/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamishra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9918C3-F62C-4C4D-A07E-6D3F60232D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBC6C5-589F-4F40-A0C9-CB32DCF88185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -215,9 +215,6 @@
     <t>6 LPA</t>
   </si>
   <si>
-    <t>8-10 LPA</t>
-  </si>
-  <si>
     <t>KFintech</t>
   </si>
   <si>
@@ -245,10 +242,7 @@
     <t>iServeU</t>
   </si>
   <si>
-    <t>Powerplay</t>
-  </si>
-  <si>
-    <t>25000 - 35000</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -736,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,7 +1292,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>28</v>
@@ -1332,7 +1326,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>39</v>
@@ -1366,7 +1360,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>30</v>
@@ -1383,10 +1377,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>51</v>
@@ -1400,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>24</v>
@@ -1417,13 +1411,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="21">
-        <v>0</v>
+      <c r="D40" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="E40" s="4">
         <v>11</v>
@@ -1434,10 +1428,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>51</v>
@@ -1447,20 +1441,18 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="26">
+      <c r="A42" s="26"/>
+      <c r="B42" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>69</v>
+      <c r="D42" s="16">
+        <v>29</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/excel/2023.xlsx
+++ b/excel/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamishra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CBC6C5-589F-4F40-A0C9-CB32DCF88185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B96394-FC94-4582-B06B-0D61CDF20A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,19 +1441,19 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="8">
+      <c r="B42" s="8">
         <v>41</v>
       </c>
-      <c r="D42" s="16">
+      <c r="C42" s="16">
         <v>29</v>
       </c>
-      <c r="E42" s="4">
+      <c r="D42" s="4">
         <v>272</v>
       </c>
+      <c r="E42"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
